--- a/biology/Microbiologie/Chlorobium/Chlorobium.xlsx
+++ b/biology/Microbiologie/Chlorobium/Chlorobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorobium est un genre de bactéries photosynthétiques à Gram négatif de la famille des Chlorobiaceae. Son nom, formé sur le grec chloros (χλωρός : vert clair ou pâle) et bios (βίος : vie), fait référence à la couleur verte des colonies de ces organismes en rapport avec leur contenu chlorophyllien.
 C'est le genre type de l'embranchement des Chlorobiota, de l'ordre des Chlorobiales et de la famille des Chlorobiaceae.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces validement publiées
-Selon la LPSN  (12 décembre 2022)[2] :
+          <t>Espèces validement publiées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (12 décembre 2022) :
 Chlorobium chlorovibrioides Gorlenko et al. 1974
 Chlorobium limicola Nadson 1906 – espèce type
 Chlorobium luteolum (Schmidle 1901) Imhoff 2003
@@ -523,9 +540,43 @@
 Chlorobium phaeovibrioides Pfennig 1968
 Les espèces suivantes ont été reclassées :
 Chlorobium tepidum : reclassée en Chlorobaculum tepidum (Wahlund et al. 1996) Imhoff 2003
-Chlorobium vibrioforme : reclassée en Prosthecochloris vibrioformis (Pelsh 1936) Imhoff 2003
-Espèces en attente de publication valide
-Selon la LPSN  (12 décembre 2022)[2] les espèces suivantes sont en attente de publication valide (Ca. signifie Candidatus) :
+Chlorobium vibrioforme : reclassée en Prosthecochloris vibrioformis (Pelsh 1936) Imhoff 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chlorobium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorobium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (12 décembre 2022) les espèces suivantes sont en attente de publication valide (Ca. signifie Candidatus) :
 « Ca. Chlorobium antarcticum » Panwar et al. 2021
 « Ca. Chlorobium canadense » Tsuji et al. 2020
 « Chlorobium chlorochromatii » Vogl et al. 2006
